--- a/Networks/Parte2/Excel/Parte2-Network16.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network16.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08692336786981486</v>
+        <v>-0.7649821160803437</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3888976681958252</v>
+        <v>-0.4306680251409209</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1832694438199412</v>
+        <v>-0.1205859354338337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.450025652529662</v>
+        <v>-0.1095394141065595</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.224825879058217</v>
+        <v>1.362590643266321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5854065133325752</v>
+        <v>0.9687159252590239</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.233936686382459</v>
+        <v>-1.603055496179893</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2751801532497993</v>
+        <v>-0.3049587306896687</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.655090887555029</v>
+        <v>0.8202267977175932</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1773944288349594</v>
+        <v>0.02388621034398519</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8620382489744028</v>
+        <v>0.5379146428294073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6504964093904728</v>
+        <v>0.5659890546507825</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network16.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network16.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7649821160803437</v>
+        <v>-0.006978416221717619</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4306680251409209</v>
+        <v>-0.4263023675729821</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1205859354338337</v>
+        <v>-0.264318620643618</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1095394141065595</v>
+        <v>0.601510549995369</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.362590643266321</v>
+        <v>-1.492639168639385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9687159252590239</v>
+        <v>-0.03351912521535196</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.603055496179893</v>
+        <v>-0.6323187605592927</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3049587306896687</v>
+        <v>-0.1634181243485108</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8202267977175932</v>
+        <v>-1.62925014290622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02388621034398519</v>
+        <v>0.2115255275947953</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5379146428294073</v>
+        <v>0.157383205833055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5659890546507825</v>
+        <v>0.1956485617902376</v>
       </c>
     </row>
   </sheetData>
